--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11417_MergedC1NPE1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11417_MergedC1NPE1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\demo\openl-demo\user-workspace\DEFAULT\MergedC1NPE1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\openl\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC24A4D3-4ABA-41CA-BA56-1951213373E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E83868B-3EED-4C51-A4AB-0C0A88BD964B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1110" windowWidth="27360" windowHeight="15090" xr2:uid="{6934D836-9230-4B36-9794-81D13742ADBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6934D836-9230-4B36-9794-81D13742ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>contains(ratingArray, bank)</t>
   </si>
   <si>
-    <t>SomeText {} agency</t>
-  </si>
-  <si>
     <t>String[] ratingArray</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>Standard &amp; Poor's</t>
+  </si>
+  <si>
+    <t>SomeText [] agency</t>
   </si>
 </sst>
 </file>
@@ -815,15 +815,15 @@
   <dimension ref="D3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="4:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:7" ht="15" x14ac:dyDescent="0.35">
       <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
@@ -843,7 +843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="4:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:7" ht="15" x14ac:dyDescent="0.35">
       <c r="D5" s="6"/>
       <c r="E5" s="18" t="s">
         <v>4</v>
@@ -851,61 +851,61 @@
       <c r="F5" s="19"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="4:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="4:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:7" ht="15" x14ac:dyDescent="0.3">
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:7" ht="15" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:7" ht="15" x14ac:dyDescent="0.3">
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="15"/>
     </row>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11417_MergedC1NPE1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11417_MergedC1NPE1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\openl\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E83868B-3EED-4C51-A4AB-0C0A88BD964B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3603AE-8BDB-491D-B525-0ABD9221A759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6934D836-9230-4B36-9794-81D13742ADBB}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>Standard &amp; Poor's</t>
   </si>
   <si>
-    <t>SomeText [] agency</t>
+    <t>SomeText {} agency</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
   <dimension ref="D3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
